--- a/src/test/resources/testData/DataExcel.xlsx
+++ b/src/test/resources/testData/DataExcel.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshi\eclipse-workspace\RestAssured_Phase2\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshi\eclipse-workspace\Team09_APIValidators_RestAssured-phase2\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EABA99-E2FC-4D98-B530-DC4391FA041D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD2D35-F98A-43CE-A25D-B48EAB4CF9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" activeTab="5" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="programpostdata" sheetId="2" r:id="rId1"/>
-    <sheet name="batchpostdata" sheetId="3" r:id="rId2"/>
-    <sheet name="userpostdata" sheetId="8" r:id="rId3"/>
-    <sheet name="Assignmentpostdata" sheetId="6" r:id="rId4"/>
-    <sheet name="Assignmentputdata" sheetId="9" r:id="rId5"/>
-    <sheet name="AssignSubmitpostdata" sheetId="7" r:id="rId6"/>
-    <sheet name="AssignSubmitputdata" sheetId="10" r:id="rId7"/>
+    <sheet name="putprogramdata" sheetId="11" r:id="rId2"/>
+    <sheet name="batchpostdata" sheetId="3" r:id="rId3"/>
+    <sheet name="userpostdata" sheetId="8" r:id="rId4"/>
+    <sheet name="userputdata" sheetId="12" r:id="rId5"/>
+    <sheet name="Assignmentpostdata" sheetId="6" r:id="rId6"/>
+    <sheet name="Assignmentputdata" sheetId="9" r:id="rId7"/>
+    <sheet name="AssignSubmitpostdata" sheetId="7" r:id="rId8"/>
+    <sheet name="AssignSubmitputdata" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="143">
   <si>
     <t>programName</t>
   </si>
@@ -105,9 +107,6 @@
     <t>Creating Assignment</t>
   </si>
   <si>
-    <t>2023-08-20T21:00:09.853+00:00</t>
-  </si>
-  <si>
     <t>pathfile1.json</t>
   </si>
   <si>
@@ -265,6 +264,213 @@
   </si>
   <si>
     <t>grade</t>
+  </si>
+  <si>
+    <t>InvalidbatchID</t>
+  </si>
+  <si>
+    <t>InvalidProgramID</t>
+  </si>
+  <si>
+    <t>InvalidBatchName</t>
+  </si>
+  <si>
+    <t>123InvalidBatch789</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Learn Rest Assured</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>update by Valid ID</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>update by valid ProgramName</t>
+  </si>
+  <si>
+    <t>LearnSQL</t>
+  </si>
+  <si>
+    <t>update by ValidID with missing Mandatory</t>
+  </si>
+  <si>
+    <t>update by Program Name with missing Mandatory</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Update program with Invalid ProgramID</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Update program with Invalid ProgramName</t>
+  </si>
+  <si>
+    <t>Create New Program</t>
+  </si>
+  <si>
+    <t>Create with missing mandatory</t>
+  </si>
+  <si>
+    <t>New user for Admin role</t>
+  </si>
+  <si>
+    <t>APIValidators_104</t>
+  </si>
+  <si>
+    <t>Adname</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/Testing101</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>GC-EAD</t>
+  </si>
+  <si>
+    <t>Missing Firstname for new User</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/Testing102</t>
+  </si>
+  <si>
+    <t>Existing Phone number</t>
+  </si>
+  <si>
+    <t>APIValidators_105</t>
+  </si>
+  <si>
+    <t>APIValidators_</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/Testing104</t>
+  </si>
+  <si>
+    <t>New user for Staff role</t>
+  </si>
+  <si>
+    <t>Staname</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/Testing105</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>H1B</t>
+  </si>
+  <si>
+    <t>New user for Student role</t>
+  </si>
+  <si>
+    <t>Stuname</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/Testing106</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>H4-EAD</t>
+  </si>
+  <si>
+    <t>userRoleProgramBatchStatus</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/Testing103</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Missing Mandatory Fields cannot update User</t>
+  </si>
+  <si>
+    <t>APIValidators_101</t>
+  </si>
+  <si>
+    <t>Missing Fields Role ID</t>
+  </si>
+  <si>
+    <t>Missing Fields Role status</t>
+  </si>
+  <si>
+    <t>Missing Fields in While assigning User to batch and prog</t>
+  </si>
+  <si>
+    <t>Different Role Id</t>
+  </si>
+  <si>
+    <t>Update User time zone for Admin role</t>
+  </si>
+  <si>
+    <t>Update User time zone for Staff role</t>
+  </si>
+  <si>
+    <t>Update User time zone for Student role</t>
+  </si>
+  <si>
+    <t>JAVA Assignment</t>
+  </si>
+  <si>
+    <t>SDET-JAVA-</t>
+  </si>
+  <si>
+    <t>2023-09-20T21:00:09.853+00:00</t>
+  </si>
+  <si>
+    <t>path1.json</t>
+  </si>
+  <si>
+    <t>path2.json</t>
+  </si>
+  <si>
+    <t>path3.json</t>
+  </si>
+  <si>
+    <t>path4.json</t>
+  </si>
+  <si>
+    <t>path5.json</t>
+  </si>
+  <si>
+    <t>2023-07-29T22:00:04.964+00:00</t>
   </si>
 </sst>
 </file>
@@ -646,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D934DE-7C8E-4ABF-853C-4DAC70642562}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +863,7 @@
     <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,10 +877,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -682,7 +891,20 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,11 +913,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7933EB-B12C-4508-B919-C5C7CBB0B968}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ADEA73-232E-41B9-BDF7-A0BAFA96DDE9}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7933EB-B12C-4508-B919-C5C7CBB0B968}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,10 +1034,10 @@
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -719,13 +1050,22 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -734,8 +1074,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
+      <c r="E3">
+        <v>5858602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>6025858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,12 +1096,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3FEB2-A7F2-4F8E-B631-AE296FF4DB15}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,94 +1119,577 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2">
+        <v>3121336718</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3">
+        <v>1010223344</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I8">
+        <v>3359979922</v>
+      </c>
+      <c r="J8" t="s">
         <v>60</v>
       </c>
-      <c r="I2">
-        <v>3359979922</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M8" t="s">
         <v>62</v>
       </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="http://www.linkedin.com/Testing101" xr:uid="{42D3D271-AB20-4457-B3D3-14C3E349C37B}"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://www.linkedin.com/Testing102" xr:uid="{1353BF20-B5EE-4AA6-B1C8-4B3D0FF75BD3}"/>
+    <hyperlink ref="F4" r:id="rId3" display="http://www.linkedin.com/Testing102" xr:uid="{0DF90D41-7C2F-4589-815A-71340BAAFA26}"/>
+    <hyperlink ref="F5" r:id="rId4" display="http://www.linkedin.com/Testing104" xr:uid="{DD0DBC93-E976-4448-A803-78511F9F3CF8}"/>
+    <hyperlink ref="F6" r:id="rId5" display="http://www.linkedin.com/Testing105" xr:uid="{C9B6B363-A56A-4FF7-B649-2F8431FCA2D2}"/>
+    <hyperlink ref="F7" r:id="rId6" display="http://www.linkedin.com/Testing106" xr:uid="{395B515B-26D1-490B-B390-A3B3F5487D15}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D079B-8CEF-4555-970A-B94E475C5E47}">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD17F82-D8F7-4005-9968-4A9D60821C85}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5">
+        <v>2121336718</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="http://www.linkedin.com/Testing101" xr:uid="{650D22BE-A8E9-4A3E-8E1C-79CB23098B7F}"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://www.linkedin.com/Testing102" xr:uid="{7C772DE4-60B9-4169-B257-F8657669199E}"/>
+    <hyperlink ref="F4" r:id="rId3" display="http://www.linkedin.com/Testing103" xr:uid="{5661CB6E-D2C6-4522-9DA2-679189EB0904}"/>
+    <hyperlink ref="F5" r:id="rId4" display="http://www.linkedin.com/Testing101" xr:uid="{438A6A09-ED07-4B90-AEED-03590CDFC7D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D079B-8CEF-4555-970A-B94E475C5E47}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -900,28 +1736,57 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -929,12 +1794,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD07FE1-3BDF-45C8-8008-C145E9176A23}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,28 +1845,28 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C96CC0-6312-4A36-8130-7FFC29687640}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1027,152 +1892,152 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -1182,11 +2047,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD44A3-5826-4344-BFEA-46FF62632D0D}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1200,57 +2065,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1260,22 +2125,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
       </c>
       <c r="H4" s="6"/>
     </row>
